--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="216">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,145 +67,145 @@
     <t>low</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>care</t>
@@ -1027,10 +1027,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>0.9777777777777777</v>
@@ -1259,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>0.967741935483871</v>
@@ -1309,7 +1309,7 @@
         <v>101</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>0.9444444444444444</v>
@@ -1359,7 +1359,7 @@
         <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -1409,7 +1409,7 @@
         <v>357</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>0.9310344827586207</v>
@@ -1459,7 +1459,7 @@
         <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>0.9166666666666666</v>
@@ -1509,7 +1509,7 @@
         <v>133</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11">
         <v>0.8947368421052632</v>
@@ -1538,28 +1538,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.08666666666666667</v>
+        <v>0.01530054644808743</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="E12">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="F12">
-        <v>0.06000000000000005</v>
+        <v>0.21</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>137</v>
+        <v>901</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12">
         <v>0.8846153846153846</v>
@@ -1588,28 +1588,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01530054644808743</v>
+        <v>0.01285046728971963</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>67</v>
+        <v>453</v>
       </c>
       <c r="E13">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
-        <v>0.21</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>901</v>
+        <v>1690</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13">
         <v>0.8666666666666667</v>
@@ -1638,28 +1638,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01285046728971963</v>
+        <v>0.01139137510170871</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>453</v>
+        <v>677</v>
       </c>
       <c r="E14">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F14">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1690</v>
+        <v>2430</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14">
         <v>0.8666666666666667</v>
@@ -1684,32 +1684,8 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.01139137510170871</v>
-      </c>
-      <c r="C15">
-        <v>28</v>
-      </c>
-      <c r="D15">
-        <v>677</v>
-      </c>
-      <c r="E15">
-        <v>0.96</v>
-      </c>
-      <c r="F15">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2430</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15">
         <v>0.8632478632478633</v>
@@ -1735,7 +1711,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
         <v>0.8503937007874016</v>
@@ -1761,7 +1737,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17">
         <v>0.8454545454545455</v>
@@ -1787,7 +1763,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18">
         <v>0.8375</v>
@@ -1813,7 +1789,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19">
         <v>0.8181818181818182</v>
@@ -1839,7 +1815,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20">
         <v>0.7872340425531915</v>
@@ -1865,7 +1841,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>0.7857142857142857</v>
@@ -1891,7 +1867,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>0.7777777777777778</v>
@@ -1917,7 +1893,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>0.76</v>
@@ -1943,7 +1919,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
         <v>0.75</v>
@@ -1969,7 +1945,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>0.7468354430379747</v>
@@ -1995,7 +1971,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>0.7407407407407407</v>
@@ -2021,42 +1997,42 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.7043478260869566</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L27">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.7017543859649122</v>
+        <v>0.6928571428571428</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="N28">
         <v>0.98</v>
@@ -2068,125 +2044,125 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.6928571428571428</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="L29">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.6904761904761905</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.6862745098039216</v>
+        <v>0.6831683168316832</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.6831683168316832</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L32">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="N32">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6818181818181818</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2198,12 +2174,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34">
         <v>0.6703296703296703</v>
@@ -2229,7 +2205,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35">
         <v>0.6538461538461539</v>
@@ -2255,7 +2231,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
         <v>0.6521739130434783</v>
@@ -2281,7 +2257,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>0.6470588235294118</v>
@@ -2307,7 +2283,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38">
         <v>0.6333333333333333</v>
@@ -2333,7 +2309,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39">
         <v>0.6086956521739131</v>
@@ -2359,7 +2335,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K40">
         <v>0.5931758530183727</v>
@@ -2385,7 +2361,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K41">
         <v>0.5909090909090909</v>
@@ -2411,7 +2387,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K42">
         <v>0.5909090909090909</v>
@@ -2437,28 +2413,28 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.581039755351682</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L43">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>137</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2466,25 +2442,25 @@
         <v>62</v>
       </c>
       <c r="K44">
-        <v>0.5806451612903226</v>
+        <v>0.5625</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N44">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2492,25 +2468,25 @@
         <v>63</v>
       </c>
       <c r="K45">
-        <v>0.5625</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -5219,7 +5195,7 @@
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K150">
         <v>0.2107827216628776</v>
@@ -5427,7 +5403,7 @@
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K158">
         <v>0.2032060348892032</v>
@@ -6493,7 +6469,7 @@
     </row>
     <row r="199" spans="10:17">
       <c r="J199" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K199">
         <v>0.05555555555555555</v>
